--- a/gropin/schema/metadataschema498.xlsx
+++ b/gropin/schema/metadataschema498.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Lactococcus piscium in/on Shrimp _cooked_ (gropin ID: 498 )</t>
+          <t>Gropin secondary growth model for Lactococcus piscium in/on Shrimp _cooked_ (gropin ID: 498 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(0,34.965034965035,length.out=21)</t>
+          <t>seq(0,34.965034965035,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(4.6046,7.39260739260739,length.out=21)</t>
+          <t>seq(4.6046,7.39260739260739,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0,79.9200799200799,length.out=21)</t>
+          <t>seq(0,79.9200799200799,length.out=10)</t>
         </is>
       </c>
     </row>
